--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marci\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marci\OneDrive\Documents\GitHub\cs104.1-project-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71876F2D-D7F7-4DBA-9396-FD4685B73A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CDC476-06C7-4BA7-A887-F434DF823399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34650" yWindow="3750" windowWidth="21600" windowHeight="11835" xr2:uid="{864A588A-ED66-4746-B0D9-2503AE404B9B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="37">
   <si>
     <t>hermilina</t>
   </si>
@@ -52,9 +52,6 @@
     <t>ferdinand</t>
   </si>
   <si>
-    <t>phinena</t>
-  </si>
-  <si>
     <t>ginafer</t>
   </si>
   <si>
@@ -128,6 +125,27 @@
   </si>
   <si>
     <t>game control</t>
+  </si>
+  <si>
+    <t>phinina</t>
+  </si>
+  <si>
+    <t>kayden</t>
+  </si>
+  <si>
+    <t>henry</t>
+  </si>
+  <si>
+    <t>darin</t>
+  </si>
+  <si>
+    <t>justin</t>
+  </si>
+  <si>
+    <t>diana</t>
+  </si>
+  <si>
+    <t>grace</t>
   </si>
 </sst>
 </file>
@@ -482,58 +500,58 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
         <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
       <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>28</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>29</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -541,19 +559,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -585,19 +603,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>9</v>
@@ -629,19 +647,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>7</v>
@@ -673,19 +691,19 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>8</v>
@@ -717,19 +735,19 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7">
         <v>10</v>
@@ -758,22 +776,22 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8">
         <v>8</v>
@@ -802,22 +820,22 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -846,22 +864,22 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -890,22 +908,22 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -933,20 +951,23 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H12">
         <v>9</v>
@@ -974,20 +995,23 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H13">
         <v>8</v>
@@ -1015,20 +1039,23 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -1056,20 +1083,23 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H15">
         <v>9</v>
@@ -1097,61 +1127,67 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>8</v>
+      </c>
+      <c r="N16">
+        <v>10</v>
+      </c>
+      <c r="O16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
         <v>22</v>
       </c>
-      <c r="H16">
-        <v>9</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>8</v>
-      </c>
-      <c r="N16">
-        <v>10</v>
-      </c>
-      <c r="O16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H17">
         <v>10</v>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25604"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marci\OneDrive\Documents\GitHub\cs104.1-project-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CDC476-06C7-4BA7-A887-F434DF823399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{F8CDC476-06C7-4BA7-A887-F434DF823399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D639BB81-9053-48CE-BCE6-13C3190C5AFF}"/>
   <bookViews>
     <workbookView xWindow="34650" yWindow="3750" windowWidth="21600" windowHeight="11835" xr2:uid="{864A588A-ED66-4746-B0D9-2503AE404B9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,21 +37,90 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="37">
   <si>
+    <t>SURVEY</t>
+  </si>
+  <si>
+    <t>INTERVIEW</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>tech level</t>
+  </si>
+  <si>
+    <t>likelihood</t>
+  </si>
+  <si>
+    <t>next task?</t>
+  </si>
+  <si>
+    <t>instructions</t>
+  </si>
+  <si>
+    <t>game op</t>
+  </si>
+  <si>
+    <t>char control dif</t>
+  </si>
+  <si>
+    <t>map nav dif</t>
+  </si>
+  <si>
+    <t>obejective dif</t>
+  </si>
+  <si>
+    <t>art &amp; des</t>
+  </si>
+  <si>
+    <t>objective system</t>
+  </si>
+  <si>
+    <t>game control</t>
+  </si>
+  <si>
     <t>hermilina</t>
   </si>
   <si>
+    <t>40+</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>marcelo</t>
   </si>
   <si>
     <t>gabriel</t>
   </si>
   <si>
+    <t>14-20</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
     <t>ian</t>
   </si>
   <si>
+    <t>high</t>
+  </si>
+  <si>
     <t>ferdinand</t>
   </si>
   <si>
+    <t>phinina</t>
+  </si>
+  <si>
+    <t>20-30</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>ginafer</t>
   </si>
   <si>
@@ -61,85 +130,16 @@
     <t>rj</t>
   </si>
   <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>likelihood</t>
-  </si>
-  <si>
-    <t>next task?</t>
-  </si>
-  <si>
-    <t>instructions</t>
-  </si>
-  <si>
-    <t>SURVEY</t>
-  </si>
-  <si>
-    <t>INTERVIEW</t>
-  </si>
-  <si>
-    <t>40+</t>
-  </si>
-  <si>
-    <t>14-20</t>
-  </si>
-  <si>
-    <t>20-30</t>
-  </si>
-  <si>
-    <t>tech level</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>average</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>game op</t>
-  </si>
-  <si>
-    <t>obejective dif</t>
-  </si>
-  <si>
-    <t>map nav dif</t>
-  </si>
-  <si>
-    <t>char control dif</t>
-  </si>
-  <si>
-    <t>art &amp; des</t>
-  </si>
-  <si>
-    <t>objective system</t>
-  </si>
-  <si>
-    <t>game control</t>
-  </si>
-  <si>
-    <t>phinina</t>
-  </si>
-  <si>
     <t>kayden</t>
   </si>
   <si>
     <t>henry</t>
   </si>
   <si>
+    <t>justin</t>
+  </si>
+  <si>
     <t>darin</t>
-  </si>
-  <si>
-    <t>justin</t>
   </si>
   <si>
     <t>diana</t>
@@ -152,7 +152,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,78 +500,91 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="O2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -598,24 +611,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>9</v>
@@ -642,24 +655,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>7</v>
@@ -686,24 +699,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>8</v>
@@ -730,24 +743,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H7">
         <v>10</v>
@@ -774,24 +787,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H8">
         <v>8</v>
@@ -818,24 +831,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -862,24 +875,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -906,24 +919,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -950,24 +963,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H12">
         <v>9</v>
@@ -994,24 +1007,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H13">
         <v>8</v>
@@ -1038,24 +1051,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -1082,24 +1095,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H15">
         <v>9</v>
@@ -1126,24 +1139,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H16">
         <v>9</v>
@@ -1170,24 +1183,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>36</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H17">
         <v>10</v>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25604"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marci\OneDrive\Documents\GitHub\cs104.1-project-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{F8CDC476-06C7-4BA7-A887-F434DF823399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D639BB81-9053-48CE-BCE6-13C3190C5AFF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFD7D26-1AE9-4B85-BBC9-892A9F7226FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34650" yWindow="3750" windowWidth="21600" windowHeight="11835" xr2:uid="{864A588A-ED66-4746-B0D9-2503AE404B9B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{864A588A-ED66-4746-B0D9-2503AE404B9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="58">
   <si>
     <t>SURVEY</t>
   </si>
@@ -146,16 +146,86 @@
   </si>
   <si>
     <t>grace</t>
+  </si>
+  <si>
+    <t>30+</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Average2</t>
+  </si>
+  <si>
+    <t>Relationship of User Age and Likelihood of playing "Slender: The Arrival"</t>
+  </si>
+  <si>
+    <t>Relationship of User Tech Level and Likelihood of playing "Slender: The Arrival"</t>
+  </si>
+  <si>
+    <t>menu nav dif</t>
+  </si>
+  <si>
+    <t>character control</t>
+  </si>
+  <si>
+    <t>menu navigation</t>
+  </si>
+  <si>
+    <t>objective puzzles</t>
+  </si>
+  <si>
+    <t>map navigation</t>
+  </si>
+  <si>
+    <t>difficulty</t>
+  </si>
+  <si>
+    <t>Relationship of Tasks and their Difficulty</t>
+  </si>
+  <si>
+    <t>game scenes</t>
+  </si>
+  <si>
+    <t>art and design</t>
+  </si>
+  <si>
+    <t>quality rating</t>
+  </si>
+  <si>
+    <t>Relationship of Game Design and User rating of its quality</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF595959"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -181,13 +251,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -198,6 +280,54 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{48110AE1-8F81-4606-83D9-66F3DEB89DF2}" name="Table2" displayName="Table2" ref="A20:D23" totalsRowShown="0">
+  <autoFilter ref="A20:D23" xr:uid="{48110AE1-8F81-4606-83D9-66F3DEB89DF2}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{2EB2A2C7-049A-4A41-92AA-2DDA234263D9}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{55960698-6898-4E75-A471-8C20D91A05AE}" name="low"/>
+    <tableColumn id="3" xr3:uid="{C56DD4AF-C7CB-4421-B2FA-EA9B8FAF7E6D}" name="average"/>
+    <tableColumn id="4" xr3:uid="{D04330C8-370C-41FF-B2B8-C59189A8CB72}" name="high"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EE01D853-911D-4CEF-BA0B-03E5D0A8D5A3}" name="Table3" displayName="Table3" ref="A26:D29" totalsRowShown="0">
+  <autoFilter ref="A26:D29" xr:uid="{EE01D853-911D-4CEF-BA0B-03E5D0A8D5A3}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{9B77B138-2BB2-49AD-AFEA-852E4E9E1C0F}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{22FE57ED-B374-4379-A7C5-49FFD48880DA}" name="low"/>
+    <tableColumn id="3" xr3:uid="{31B78AAA-B004-4FB2-9516-45D08D587B07}" name="average"/>
+    <tableColumn id="4" xr3:uid="{8828DF1D-BA9A-4E28-B0F6-0770192A90A9}" name="high"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F8586885-0600-48C9-9A2A-2237A6D63DE5}" name="Table6" displayName="Table6" ref="A32:B36" totalsRowShown="0">
+  <autoFilter ref="A32:B36" xr:uid="{F8586885-0600-48C9-9A2A-2237A6D63DE5}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{196A379D-0D7C-4A3D-8A80-FC37E015B756}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{A5A18209-0263-4997-8857-38964EAEDB0F}" name="difficulty" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4664E5A7-9829-4C64-B83A-7B7760AB6D21}" name="Table7" displayName="Table7" ref="A39:B43" totalsRowShown="0">
+  <autoFilter ref="A39:B43" xr:uid="{4664E5A7-9829-4C64-B83A-7B7760AB6D21}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{1AA68262-BD82-45D7-B4AA-18466131CA3E}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{CF98E805-62E4-42AF-8011-89F4CB2C0287}" name="quality rating" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -497,14 +627,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A50740-64FB-488C-8FED-921B6C60701B}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
@@ -518,7 +649,7 @@
     <col min="15" max="15" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -549,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -567,7 +698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -611,7 +742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -655,7 +786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -699,7 +830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -743,7 +874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -787,7 +918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -831,7 +962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -875,7 +1006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -919,7 +1050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -963,7 +1094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1007,7 +1138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1051,7 +1182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1095,7 +1226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1139,7 +1270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1183,7 +1314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1227,7 +1358,229 @@
         <v>10</v>
       </c>
     </row>
+    <row r="19" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.49299999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.69299999999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.88700000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="4">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>